--- a/Datos/Database by set/Set with text box/Xlsx sets/Journey into Nyx Promos (PJOU).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Journey into Nyx Promos (PJOU).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,336 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dawnbringer Charioteers</t>
+          <t>('Dawnbringer Charioteers', ['{2}{W}{W}', 'Creature — Human Soldier', 'Flying, lifelink', 'Heroic — Whenever you cast a spell that targets Dawnbringer Charioteers, put a +1/+1 counter on Dawnbringer Charioteers.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{W}{W}</t>
+          <t>('Dictate of Kruphix', ['{1}{U}{U}', 'Enchantment', 'Flash', 'At the beginning of each player’s draw step, that player draws an additional card.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Human Soldier</t>
+          <t>('Dictate of the Twin Gods', ['{3}{R}{R}', 'Enchantment', 'Flash', 'If a source would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying, lifelink</t>
+          <t>('Doomwake Giant', ['{4}{B}', 'Enchantment Creature — Giant', 'Constellation — Whenever Doomwake Giant or another enchantment enters the battlefield under your control, creatures your opponents control get -1/-1 until end of turn.', '4/6'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Heroic — Whenever you cast a spell that targets Dawnbringer Charioteers, put a +1/+1 counter on Dawnbringer Charioteers.</t>
+          <t>('Eidolon of Blossoms', ['{2}{G}{G}', 'Enchantment Creature — Spirit', 'Constellation — Whenever Eidolon of Blossoms or another enchantment enters the battlefield under your control, draw a card.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2/4</t>
+          <t>("Heroes' Bane", ['{3}{G}{G}', 'Creature — Hydra', 'Heroes’ Bane enters the battlefield with four +1/+1 counters on it.', '{2}{G}{G}: Put X +1/+1 counters on Heroes’ Bane, where X is its power.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dictate of Kruphix</t>
+          <t>('Scourge of Fleets', ['{5}{U}{U}', 'Creature — Kraken', 'When Scourge of Fleets enters the battlefield, return each creature your opponents control with toughness X or less to its owner’s hand, where X is the number of Islands you control.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{1}{U}{U}</t>
+          <t>('Spawn of Thraxes', ['{5}{R}{R}', 'Creature — Dragon', 'Flying', 'When Spawn of Thraxes enters the battlefield, it deals damage to any target equal to the number of Mountains you control.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>At the beginning of each player’s draw step, that player draws an additional card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Dictate of the Twin Gods</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{3}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>If a source would deal damage to a permanent or player, it deals double that damage to that permanent or player instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Doomwake Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{4}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Enchantment Creature — Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Constellation — Whenever Doomwake Giant or another enchantment enters the battlefield under your control, creatures your opponents control get -1/-1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>4/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Eidolon of Blossoms</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Enchantment Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Constellation — Whenever Eidolon of Blossoms or another enchantment enters the battlefield under your control, draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Heroes' Bane</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{3}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Creature — Hydra</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Heroes’ Bane enters the battlefield with four +1/+1 counters on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}: Put X +1/+1 counters on Heroes’ Bane, where X is its power.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Scourge of Fleets</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{5}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Creature — Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>When Scourge of Fleets enters the battlefield, return each creature your opponents control with toughness X or less to its owner’s hand, where X is the number of Islands you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Spawn of Thraxes</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>{5}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>When Spawn of Thraxes enters the battlefield, it deals damage to any target equal to the number of Mountains you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Squelching Leeches</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Creature — Leech</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Squelching Leeches’s power and toughness are each equal to the number of Swamps you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>*/*</t>
+          <t>('Squelching Leeches', ['{2}{B}{B}', 'Creature — Leech', 'Squelching Leeches’s power and toughness are each equal to the number of Swamps you control.', '*/*'])</t>
         </is>
       </c>
     </row>
